--- a/test_xlsx/M模式表.xlsx
+++ b/test_xlsx/M模式表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
   <si>
     <t>MOD</t>
   </si>
@@ -35,6 +35,12 @@
     <t>FRONT_TYPE</t>
   </si>
   <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>DES</t>
   </si>
   <si>
@@ -194,85 +200,88 @@
     <t>REF</t>
   </si>
   <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Name_Competitive_Default</t>
+  </si>
+  <si>
+    <t>经典竞技</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Des_Competitive_Default</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>4,7,9</t>
+  </si>
+  <si>
+    <t>120,180</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Name_Teammatch_Default</t>
+  </si>
+  <si>
+    <t>团队竞技</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Des_Teammatch_Default</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>600,1200</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Name_ArmsRace_Default</t>
+  </si>
+  <si>
+    <t>军备竞赛</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Des_ArmsRace _Default</t>
+  </si>
+  <si>
+    <t>每周</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Name_Deathmatch_Default</t>
+  </si>
+  <si>
+    <t>个人死斗</t>
+  </si>
+  <si>
+    <t>D_GameModeManage_Des_Deathmatch_Default</t>
+  </si>
+  <si>
+    <t>限时</t>
+  </si>
+  <si>
+    <t>训练模式</t>
+  </si>
+  <si>
     <t>P排位积分表</t>
   </si>
   <si>
     <t>C场景表</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Name_Competitive_Default</t>
-  </si>
-  <si>
-    <t>经典竞技</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Des_Competitive_Default</t>
-  </si>
-  <si>
     <t>待配置</t>
   </si>
   <si>
     <t>待配置list</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>4,7,9</t>
-  </si>
-  <si>
-    <t>120,180</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Name_Teammatch_Default</t>
-  </si>
-  <si>
-    <t>团队竞技</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Des_Teammatch_Default</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>600,1200</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Name_ArmsRace_Default</t>
-  </si>
-  <si>
-    <t>军备竞赛</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Des_ArmsRace _Default</t>
-  </si>
-  <si>
-    <t>每周</t>
-  </si>
-  <si>
-    <t>1,3,5</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Name_Deathmatch_Default</t>
-  </si>
-  <si>
-    <t>个人死斗</t>
-  </si>
-  <si>
-    <t>D_GameModeManage_Des_Deathmatch_Default</t>
-  </si>
-  <si>
-    <t>限时</t>
   </si>
   <si>
     <t>模式ID
@@ -354,11 +363,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -399,60 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +423,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,17 +468,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,17 +523,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,17 +538,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,187 +572,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,15 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -847,8 +847,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,6 +894,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -893,15 +911,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -910,10 +919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,140 +931,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,32 +1125,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1507,14 +1513,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1646,34 +1652,74 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Y3" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
@@ -1688,79 +1734,79 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:35">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -1775,77 +1821,77 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -1860,7 +1906,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:35">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1875,10 +1921,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1887,7 +1933,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1905,7 +1951,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:35">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1914,14 +1960,10 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1970,26 +2012,20 @@
       <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="J8" s="15">
         <v>10</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="P8" s="20">
         <v>44562</v>
@@ -2007,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="X8" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
@@ -2031,19 +2067,18 @@
         <v>唯一</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="28"/>
       <c r="J9" s="15">
         <v>10</v>
       </c>
@@ -2051,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P9" s="20">
         <v>44563</v>
@@ -2075,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="29">
+        <v>66</v>
+      </c>
+      <c r="W9" s="28">
         <v>50100</v>
       </c>
       <c r="X9" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y9" s="2">
         <v>1</v>
@@ -2099,19 +2134,18 @@
         <v>唯一</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="14">
         <v>5</v>
       </c>
-      <c r="I10" s="28"/>
       <c r="J10" s="15">
         <v>10</v>
       </c>
@@ -2119,13 +2153,13 @@
         <v>5</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P10" s="20">
         <v>44564</v>
@@ -2143,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="2">
         <v>1</v>
@@ -2170,13 +2204,13 @@
         <v>唯一</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14">
@@ -2191,13 +2225,13 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" s="20">
         <v>44565</v>
@@ -2215,25 +2249,86 @@
         <v>0</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="W11" s="29">
+        <v>66</v>
+      </c>
+      <c r="W11" s="28">
         <v>50100</v>
       </c>
       <c r="X11" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y11" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="12" s="2" customFormat="1" spans="1:25">
+      <c r="A12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3001</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IF(COUNTIF(B:B,B12)&gt;1,"重复","唯一")</f>
+        <v>唯一</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="20">
+        <v>44562</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>44562</v>
+      </c>
+      <c r="R12" s="20">
+        <v>44562</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10">
-    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2420,79 +2515,79 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:35">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -2507,77 +2602,77 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -2592,7 +2687,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:35">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2607,10 +2702,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -2619,7 +2714,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -2637,7 +2732,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:35">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2647,12 +2742,12 @@
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -2701,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J8" s="15">
         <v>10</v>
@@ -2710,16 +2805,16 @@
         <v>5</v>
       </c>
       <c r="L8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P8" s="20">
         <v>44562</v>
@@ -2737,16 +2832,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="X8" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
@@ -2755,82 +2850,82 @@
     <row r="9" s="2" customFormat="1" ht="198" spans="1:25">
       <c r="A9" s="13"/>
       <c r="B9" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C9" s="15" t="str">
         <f>IF(COUNTIF(B:B,B9)&gt;1,"重复","唯一")</f>
         <v>唯一</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
